--- a/02_画面設計書・モップアップ/2班_画面設計書.xlsx
+++ b/02_画面設計書・モップアップ/2班_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoh1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsuka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76DE67-1C75-40FF-BB8D-06C00B362B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E6503-9808-4C60-B555-E600C6A9CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="298">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -1424,13 +1424,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ボタンを押すと、チャット画面（G3-2）へ遷移する</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>募集内容を入力する</t>
   </si>
   <si>
@@ -1837,9 +1830,6 @@
   </si>
   <si>
     <t>アイコンを表示する</t>
-  </si>
-  <si>
-    <t>プレイヤー名を表示する</t>
   </si>
   <si>
     <t>画像をアップロードするボタン</t>
@@ -2026,6 +2016,44 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名を表示する</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタンを押すと、チャット画面（G2-1）へ遷移する</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大庭</t>
+    <rPh sb="0" eb="2">
+      <t>オオバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面遷移図ログアウト遷移表記　削除</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3109,6 +3137,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3166,15 +3203,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4229,182 +4257,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3813D51B-3C70-4939-AD35-937A058B336E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BDE6BFD9-CFB8-4E76-996B-77E947B66D6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="2105025"/>
-          <a:ext cx="1438275" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:srgbClr val="000000"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5011,16 +4863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5036,12 +4888,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:endCxn id="2" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4514850" y="2809875"/>
-          <a:ext cx="1657350" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="2086665" y="2816087"/>
+          <a:ext cx="1800639" cy="3451"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5168,69 +5021,6 @@
         <a:xfrm flipV="1">
           <a:off x="4210050" y="4324350"/>
           <a:ext cx="0" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB103281-33A1-47FD-A45D-570841CFCB16}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6AE2DDD7-1BA5-4E3E-922A-6287E13028BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1609725" y="1666875"/>
-          <a:ext cx="0" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5520,83 +5310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C4923A-AA15-D95C-E722-311B3746A2A5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ED2DFF6B-5F62-4C85-BDD8-0DACC8D532E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{3813D51B-3C70-4939-AD35-937A058B336E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="1676400"/>
-          <a:ext cx="5191125" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>70816</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>46935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>71783</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>88486</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5615,9 +5338,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4524375" y="2800350"/>
-          <a:ext cx="0" cy="571500"/>
+        <a:xfrm flipH="1">
+          <a:off x="3875294" y="2818848"/>
+          <a:ext cx="967" cy="521942"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5870,68 +5593,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2219325" y="4067175"/>
-          <a:ext cx="0" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C34F83-EFF4-44AF-B7CA-BDD0087DE839}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68C4FFCE-46AD-437C-90C0-A0FAA7E84F52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1676400"/>
           <a:ext cx="0" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -16837,15 +16498,15 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="64" zoomScaleNormal="150" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AD2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.109375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.109375" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.08984375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
@@ -17834,16 +17495,22 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="122"/>
+      <c r="B24" s="122" t="s">
+        <v>295</v>
+      </c>
       <c r="C24" s="123"/>
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
-      <c r="F24" s="128"/>
+      <c r="F24" s="128">
+        <v>45100</v>
+      </c>
       <c r="G24" s="129"/>
       <c r="H24" s="129"/>
       <c r="I24" s="129"/>
       <c r="J24" s="130"/>
-      <c r="K24" s="125"/>
+      <c r="K24" s="125" t="s">
+        <v>297</v>
+      </c>
       <c r="L24" s="126"/>
       <c r="M24" s="126"/>
       <c r="N24" s="126"/>
@@ -17860,7 +17527,9 @@
       <c r="Y24" s="126"/>
       <c r="Z24" s="126"/>
       <c r="AA24" s="127"/>
-      <c r="AB24" s="122"/>
+      <c r="AB24" s="122" t="s">
+        <v>296</v>
+      </c>
       <c r="AC24" s="123"/>
       <c r="AD24" s="124"/>
       <c r="AE24" s="14"/>
@@ -18125,780 +17794,780 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DC8C3-78D2-4335-B246-072D498058BB}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4">
-      <c r="A1" s="223" t="s">
+    <row r="1" spans="1:20" ht="14">
+      <c r="A1" s="226" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="229"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.25" customHeight="1">
+      <c r="A2" s="230" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="226"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.2" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="B2" s="231"/>
+      <c r="C2" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="94" t="s">
+      <c r="D2" s="241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="236" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="238" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="233" t="s">
+      <c r="R2" s="237"/>
+      <c r="S2" s="241" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="238" t="s">
+      <c r="T2" s="243"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="232"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="T2" s="240"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="229"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="241" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="238" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="233" t="s">
+      <c r="R3" s="238"/>
+      <c r="S3" s="239">
+        <v>45056</v>
+      </c>
+      <c r="T3" s="240"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="234"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="235"/>
-      <c r="S3" s="236">
-        <v>45056</v>
-      </c>
-      <c r="T3" s="237"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="231"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="94" t="s">
+      <c r="D4" s="241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="236" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="238" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="233" t="s">
+      <c r="R4" s="238"/>
+      <c r="S4" s="244" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="243"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="235"/>
-      <c r="S4" s="241" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="240"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="227" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="94" t="s">
+      <c r="D5" s="241" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="238" t="s">
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239" t="s">
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="233" t="s">
+      <c r="R5" s="238"/>
+      <c r="S5" s="244" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" s="243"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="232"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="235"/>
-      <c r="S5" s="241" t="s">
+      <c r="D6" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="T5" s="240"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="229"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="238" t="s">
+      <c r="E6" s="245"/>
+      <c r="F6" s="244" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="243"/>
+      <c r="H6" s="241" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="241" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="240"/>
-      <c r="H6" s="238" t="s">
+      <c r="I6" s="243"/>
+      <c r="J6" s="242" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="242"/>
+      <c r="P6" s="243"/>
+      <c r="Q6" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="255">
+        <v>45062</v>
+      </c>
+      <c r="T6" s="240"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.25" customHeight="1">
+      <c r="A7" s="234"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="241" t="s">
         <v>262</v>
       </c>
-      <c r="I6" s="240"/>
-      <c r="J6" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="R6" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" s="252">
-        <v>45062</v>
-      </c>
-      <c r="T6" s="237"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.2" customHeight="1">
-      <c r="A7" s="231"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="238" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="233" t="s">
-        <v>228</v>
-      </c>
-      <c r="R7" s="235"/>
-      <c r="S7" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="T7" s="240"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="243"/>
+      <c r="Q7" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="R7" s="238"/>
+      <c r="S7" s="244" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="243"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T8" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M9" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T9" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M10" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T10" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" s="101">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T11" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M12" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T12" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M13" s="101">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T13" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M14" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T14" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M15" s="101">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="T15" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M16" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T16" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M17" s="101">
         <v>4</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T17" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M18" s="101"/>
       <c r="T18" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M19" s="101">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T19" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M20" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T20" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T21" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M22" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T22" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M23" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T23" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M24" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T24" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M25" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T25" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M26" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T26" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M27" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T27" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T28" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M29" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T29" s="94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="99"/>
       <c r="C30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T30" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="C31" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="106" t="s">
+      <c r="E31" s="253" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="250" t="s">
+      <c r="F31" s="254"/>
+      <c r="G31" s="104" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="251"/>
-      <c r="G31" s="104" t="s">
+      <c r="H31" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="106" t="s">
+      <c r="I31" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="I31" s="105" t="s">
+      <c r="J31" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="109" t="s">
+      <c r="K31" s="109" t="s">
         <v>249</v>
-      </c>
-      <c r="K31" s="109" t="s">
-        <v>250</v>
       </c>
       <c r="L31" s="109" t="s">
         <v>125</v>
       </c>
       <c r="M31" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N31" s="105" t="s">
         <v>126</v>
       </c>
       <c r="O31" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P31" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="R31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="T31" s="106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="13.25" customHeight="1">
+      <c r="A32" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="Q31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="R31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="S31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="T31" s="106" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="13.2" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="B32" s="246" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="247"/>
+      <c r="D32" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="243" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="244"/>
-      <c r="D32" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="239" t="s">
+      <c r="E32" s="242" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="242"/>
+      <c r="F32" s="245"/>
       <c r="G32" s="119" t="s">
         <v>137</v>
       </c>
@@ -18906,7 +18575,7 @@
         <v>137</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J32" s="119" t="s">
         <v>137</v>
@@ -18914,37 +18583,37 @@
       <c r="K32" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="L32" s="238" t="s">
+      <c r="L32" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="M32" s="242"/>
-      <c r="N32" s="241" t="s">
+      <c r="M32" s="245"/>
+      <c r="N32" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="240"/>
-      <c r="P32" s="243" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q32" s="243"/>
-      <c r="R32" s="243"/>
-      <c r="S32" s="243"/>
-      <c r="T32" s="244"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="246" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q32" s="246"/>
+      <c r="R32" s="246"/>
+      <c r="S32" s="246"/>
+      <c r="T32" s="247"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="243" t="s">
-        <v>271</v>
-      </c>
-      <c r="C33" s="244"/>
+        <v>254</v>
+      </c>
+      <c r="B33" s="246" t="s">
+        <v>269</v>
+      </c>
+      <c r="C33" s="247"/>
       <c r="D33" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="F33" s="242"/>
+        <v>252</v>
+      </c>
+      <c r="E33" s="242" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="245"/>
       <c r="G33" s="119" t="s">
         <v>137</v>
       </c>
@@ -18952,7 +18621,7 @@
         <v>137</v>
       </c>
       <c r="I33" s="119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J33" s="119" t="s">
         <v>137</v>
@@ -18960,48 +18629,48 @@
       <c r="K33" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="238" t="s">
+      <c r="L33" s="241" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="242"/>
-      <c r="N33" s="241" t="s">
+      <c r="M33" s="245"/>
+      <c r="N33" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="240"/>
-      <c r="P33" s="243" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="244"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.2" customHeight="1">
+      <c r="O33" s="243"/>
+      <c r="P33" s="246" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q33" s="246"/>
+      <c r="R33" s="246"/>
+      <c r="S33" s="246"/>
+      <c r="T33" s="247"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.25" customHeight="1">
       <c r="A34" s="111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="190" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C34" s="192"/>
       <c r="D34" s="70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" s="185" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F34" s="187"/>
       <c r="G34" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>131</v>
       </c>
       <c r="I34" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="K34" s="28" t="s">
         <v>135</v>
@@ -19015,7 +18684,7 @@
       </c>
       <c r="O34" s="187"/>
       <c r="P34" s="190" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="191"/>
       <c r="R34" s="191"/>
@@ -19024,10 +18693,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" s="190" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" s="192"/>
       <c r="D35" s="70" t="s">
@@ -19061,7 +18730,7 @@
       </c>
       <c r="O35" s="187"/>
       <c r="P35" s="190" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q35" s="191"/>
       <c r="R35" s="191"/>
@@ -19073,7 +18742,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="190" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C36" s="192"/>
       <c r="D36" s="70" t="s">
@@ -19087,7 +18756,7 @@
         <v>131</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>133</v>
@@ -19107,7 +18776,7 @@
       </c>
       <c r="O36" s="187"/>
       <c r="P36" s="190" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q36" s="191"/>
       <c r="R36" s="191"/>
@@ -19185,9 +18854,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -20744,17 +20413,17 @@
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="46.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
@@ -21312,7 +20981,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -21321,15 +20990,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.21875" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
@@ -21988,7 +21657,6 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -22886,21 +22554,21 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="14" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="14" width="8.08984375" customWidth="1"/>
     <col min="15" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
@@ -23987,23 +23655,23 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="14" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="14" width="8.08984375" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" customWidth="1"/>
     <col min="17" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="20.88671875" customWidth="1"/>
+    <col min="20" max="20" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
@@ -25142,24 +24810,24 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="14" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="14" width="8.08984375" customWidth="1"/>
     <col min="15" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1">
@@ -25644,7 +25312,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -25692,7 +25360,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -25740,7 +25408,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -25788,7 +25456,7 @@
         <v>8</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -25836,7 +25504,7 @@
         <v>9</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -25964,14 +25632,14 @@
         <v>128</v>
       </c>
       <c r="B32" s="190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="192"/>
       <c r="D32" s="70" t="s">
         <v>131</v>
       </c>
       <c r="E32" s="185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F32" s="187"/>
       <c r="G32" s="28" t="s">
@@ -25998,7 +25666,7 @@
       </c>
       <c r="O32" s="187"/>
       <c r="P32" s="190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="191"/>
       <c r="R32" s="191"/>
@@ -26010,7 +25678,7 @@
         <v>139</v>
       </c>
       <c r="B33" s="190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="192"/>
       <c r="D33" s="70" t="s">
@@ -26024,16 +25692,16 @@
         <v>131</v>
       </c>
       <c r="H33" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="121" t="s">
+      <c r="J33" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="121" t="s">
+      <c r="K33" s="121" t="s">
         <v>192</v>
-      </c>
-      <c r="K33" s="121" t="s">
-        <v>193</v>
       </c>
       <c r="L33" s="220" t="s">
         <v>136</v>
@@ -26044,7 +25712,7 @@
       </c>
       <c r="O33" s="221"/>
       <c r="P33" s="190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q33" s="191"/>
       <c r="R33" s="191"/>
@@ -26056,7 +25724,7 @@
         <v>143</v>
       </c>
       <c r="B34" s="190" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="192"/>
       <c r="D34" s="70" t="s">
@@ -26090,7 +25758,7 @@
       </c>
       <c r="O34" s="187"/>
       <c r="P34" s="190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="191"/>
       <c r="R34" s="191"/>
@@ -26102,7 +25770,7 @@
         <v>147</v>
       </c>
       <c r="B35" s="190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="192"/>
       <c r="D35" s="70" t="s">
@@ -26113,16 +25781,16 @@
       </c>
       <c r="F35" s="187"/>
       <c r="G35" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H35" s="28" t="s">
         <v>131</v>
       </c>
       <c r="I35" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="K35" s="69" t="s">
         <v>135</v>
@@ -26148,7 +25816,7 @@
         <v>151</v>
       </c>
       <c r="B36" s="190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="192"/>
       <c r="D36" s="70" t="s">
@@ -26182,7 +25850,7 @@
       </c>
       <c r="O36" s="187"/>
       <c r="P36" s="190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="191"/>
       <c r="R36" s="191"/>
@@ -26194,7 +25862,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" s="192"/>
       <c r="D37" s="70" t="s">
@@ -26208,13 +25876,13 @@
         <v>132</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I37" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="K37" s="28" t="s">
         <v>135</v>
@@ -26228,26 +25896,26 @@
       </c>
       <c r="O37" s="187"/>
       <c r="P37" s="190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="191"/>
       <c r="R37" s="191"/>
       <c r="S37" s="191"/>
       <c r="T37" s="192"/>
     </row>
-    <row r="38" spans="1:20" s="42" customFormat="1" ht="13.2" customHeight="1">
+    <row r="38" spans="1:20" s="42" customFormat="1" ht="13.25" customHeight="1">
       <c r="A38" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="190" t="s">
         <v>206</v>
-      </c>
-      <c r="B38" s="190" t="s">
-        <v>207</v>
       </c>
       <c r="C38" s="192"/>
       <c r="D38" s="70" t="s">
         <v>131</v>
       </c>
       <c r="E38" s="185" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="187"/>
       <c r="G38" s="28" t="s">
@@ -26274,7 +25942,7 @@
       </c>
       <c r="O38" s="187"/>
       <c r="P38" s="190" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="191"/>
       <c r="R38" s="191"/>
@@ -26283,10 +25951,10 @@
     </row>
     <row r="39" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="190" t="s">
         <v>210</v>
-      </c>
-      <c r="B39" s="190" t="s">
-        <v>211</v>
       </c>
       <c r="C39" s="192"/>
       <c r="D39" s="70" t="s">
@@ -26320,7 +25988,7 @@
       </c>
       <c r="O39" s="187"/>
       <c r="P39" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q39" s="191"/>
       <c r="R39" s="191"/>
@@ -26329,10 +25997,10 @@
     </row>
     <row r="40" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1">
       <c r="A40" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="190" t="s">
         <v>213</v>
-      </c>
-      <c r="B40" s="190" t="s">
-        <v>214</v>
       </c>
       <c r="C40" s="192"/>
       <c r="D40" s="70" t="s">
@@ -26366,7 +26034,7 @@
       </c>
       <c r="O40" s="187"/>
       <c r="P40" s="190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="191"/>
       <c r="R40" s="191"/>
@@ -26375,10 +26043,10 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B41" s="190" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" s="192"/>
       <c r="D41" s="70" t="s">
@@ -26412,7 +26080,7 @@
       </c>
       <c r="O41" s="187"/>
       <c r="P41" s="190" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="191"/>
       <c r="R41" s="191"/>
@@ -26440,6 +26108,8 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="P32:T32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="P40:T40"/>
@@ -26449,24 +26119,22 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="P39:T39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="P36:T36"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="P34:T34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:P5"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:P5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="Q2:R2"/>
@@ -26510,22 +26178,22 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="14" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="14" width="8.08984375" customWidth="1"/>
     <col min="15" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="42" customFormat="1" ht="14.25" customHeight="1">
@@ -26580,7 +26248,7 @@
       </c>
       <c r="R2" s="203"/>
       <c r="S2" s="185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T2" s="187"/>
     </row>
@@ -26681,24 +26349,24 @@
         <v>98</v>
       </c>
       <c r="D6" s="216" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" s="213"/>
       <c r="F6" s="217" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="216"/>
-      <c r="H6" s="255" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="255"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="255"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="H6" s="223" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
       <c r="Q6" s="91" t="s">
         <v>37</v>
       </c>
@@ -26819,7 +26487,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -26866,7 +26534,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -27302,7 +26970,7 @@
         <v>128</v>
       </c>
       <c r="B32" s="190" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C32" s="192"/>
       <c r="D32" s="70" t="s">
@@ -27336,7 +27004,7 @@
       </c>
       <c r="O32" s="187"/>
       <c r="P32" s="190" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q32" s="191"/>
       <c r="R32" s="191"/>
@@ -27348,7 +27016,7 @@
         <v>139</v>
       </c>
       <c r="B33" s="190" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C33" s="192"/>
       <c r="D33" s="70" t="s">
@@ -27373,16 +27041,16 @@
       <c r="K33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="253" t="s">
+      <c r="L33" s="224" t="s">
         <v>137</v>
       </c>
-      <c r="M33" s="254"/>
-      <c r="N33" s="253" t="s">
+      <c r="M33" s="225"/>
+      <c r="N33" s="224" t="s">
         <v>137</v>
       </c>
-      <c r="O33" s="254"/>
+      <c r="O33" s="225"/>
       <c r="P33" s="190" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q33" s="191"/>
       <c r="R33" s="191"/>
@@ -27393,11 +27061,12 @@
     <row r="35" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="36" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="37" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="38" spans="1:20" s="42" customFormat="1" ht="13.2" customHeight="1"/>
+    <row r="38" spans="1:20" s="42" customFormat="1" ht="13.25" customHeight="1"/>
     <row r="39" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1"/>
     <row r="40" spans="1:20" s="42" customFormat="1" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="S6:T6"/>
     <mergeCell ref="H6:P6"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
@@ -27412,14 +27081,12 @@
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="P32:T32"/>
-    <mergeCell ref="S4:T4"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="S6:T6"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:P2"/>
@@ -27430,6 +27097,7 @@
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="D4:P4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27442,817 +27110,817 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F766B5-C553-4F84-8115-52D431FF8B7A}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P34" sqref="P34:T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4">
-      <c r="A1" s="223" t="s">
+    <row r="1" spans="1:20" ht="14">
+      <c r="A1" s="226" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="229"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.25" customHeight="1">
+      <c r="A2" s="230" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="226"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.2" customHeight="1">
-      <c r="A2" s="227" t="s">
+      <c r="B2" s="231"/>
+      <c r="C2" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="94" t="s">
+      <c r="D2" s="241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="236" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="238" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="233" t="s">
+      <c r="R2" s="237"/>
+      <c r="S2" s="241" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="238" t="s">
+      <c r="T2" s="243"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="232"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="T2" s="240"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="229"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="241" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="242"/>
+      <c r="P3" s="243"/>
+      <c r="Q3" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="238" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="239"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="233" t="s">
+      <c r="R3" s="238"/>
+      <c r="S3" s="239">
+        <v>45056</v>
+      </c>
+      <c r="T3" s="240"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="234"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="235"/>
-      <c r="S3" s="236">
-        <v>45056</v>
-      </c>
-      <c r="T3" s="237"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="231"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="94" t="s">
+      <c r="D4" s="241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="236" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="238" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="233" t="s">
+      <c r="R4" s="238"/>
+      <c r="S4" s="244" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="243"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="235"/>
-      <c r="S4" s="241" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="240"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="227" t="s">
+      <c r="B5" s="231"/>
+      <c r="C5" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="94" t="s">
+      <c r="D5" s="241" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="238" t="s">
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="246" t="s">
+      <c r="I5" s="249"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="236" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="246"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="233" t="s">
+      <c r="R5" s="238"/>
+      <c r="S5" s="244" t="s">
+        <v>227</v>
+      </c>
+      <c r="T5" s="243"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="232"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="235"/>
-      <c r="S5" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="T5" s="240"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="229"/>
-      <c r="B6" s="230"/>
-      <c r="C6" s="94" t="s">
+      <c r="D6" s="241" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="238" t="s">
+      <c r="E6" s="245"/>
+      <c r="F6" s="244" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="241" t="s">
+      <c r="G6" s="242"/>
+      <c r="H6" s="251" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="248" t="s">
+      <c r="I6" s="252"/>
+      <c r="J6" s="242" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
+      <c r="N6" s="242"/>
+      <c r="O6" s="242"/>
+      <c r="P6" s="243"/>
+      <c r="Q6" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="I6" s="249"/>
-      <c r="J6" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="97" t="s">
+      <c r="R6" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="246" t="s">
+        <v>227</v>
+      </c>
+      <c r="T6" s="247"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="234"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="R6" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" s="243" t="s">
-        <v>228</v>
-      </c>
-      <c r="T6" s="244"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="231"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="94" t="s">
+      <c r="D7" s="241" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="238" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="233" t="s">
-        <v>228</v>
-      </c>
-      <c r="R7" s="235"/>
-      <c r="S7" s="241" t="s">
-        <v>228</v>
-      </c>
-      <c r="T7" s="240"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="242"/>
+      <c r="O7" s="242"/>
+      <c r="P7" s="243"/>
+      <c r="Q7" s="236" t="s">
+        <v>227</v>
+      </c>
+      <c r="R7" s="238"/>
+      <c r="S7" s="244" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="243"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S8" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T8" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M9" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T9" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M10" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T10" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" s="101">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T11" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M12" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T12" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M13" s="101">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T13" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M14" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T14" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M15" s="101">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T15" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M16" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T16" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M17" s="101">
         <v>4</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T17" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="M18" s="245"/>
+        <v>227</v>
+      </c>
+      <c r="M18" s="248"/>
       <c r="T18" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="M19" s="245"/>
+        <v>227</v>
+      </c>
+      <c r="M19" s="248"/>
       <c r="T19" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M20" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T20" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T21" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M22" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T22" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M23" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T23" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M24" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T24" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M25" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T25" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M26" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T26" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M27" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T27" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" s="101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T28" s="102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M29" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S29" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T29" s="94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="99"/>
       <c r="C30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S30" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T30" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="C31" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="106" t="s">
+      <c r="E31" s="107" t="s">
         <v>244</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>245</v>
       </c>
       <c r="F31" s="108"/>
       <c r="G31" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="106" t="s">
+      <c r="I31" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="I31" s="105" t="s">
+      <c r="J31" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="J31" s="109" t="s">
+      <c r="K31" s="109" t="s">
         <v>249</v>
-      </c>
-      <c r="K31" s="109" t="s">
-        <v>250</v>
       </c>
       <c r="L31" s="109" t="s">
         <v>125</v>
       </c>
       <c r="M31" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N31" s="105" t="s">
         <v>126</v>
       </c>
       <c r="O31" s="106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P31" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="R31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="T31" s="106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="13.25" customHeight="1">
+      <c r="A32" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="Q31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="R31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="S31" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="T31" s="106" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="13.2" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="B32" s="246" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="247"/>
+      <c r="D32" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="243" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="244"/>
-      <c r="D32" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="239" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="242"/>
+      <c r="E32" s="242" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="245"/>
       <c r="G32" s="119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H32" s="119" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="119" t="s">
         <v>199</v>
-      </c>
-      <c r="J32" s="119" t="s">
-        <v>200</v>
       </c>
       <c r="K32" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="238" t="s">
-        <v>254</v>
-      </c>
-      <c r="M32" s="242"/>
-      <c r="N32" s="241" t="s">
+      <c r="L32" s="241" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" s="245"/>
+      <c r="N32" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="240"/>
-      <c r="P32" s="243" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q32" s="243"/>
-      <c r="R32" s="243"/>
-      <c r="S32" s="243"/>
-      <c r="T32" s="244"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="246" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="246"/>
+      <c r="R32" s="246"/>
+      <c r="S32" s="246"/>
+      <c r="T32" s="247"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="B33" s="243" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="244"/>
+      <c r="C33" s="247"/>
       <c r="D33" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="239" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" s="242"/>
+        <v>252</v>
+      </c>
+      <c r="E33" s="242" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="245"/>
       <c r="G33" s="118" t="s">
         <v>132</v>
       </c>
@@ -28260,40 +27928,40 @@
         <v>131</v>
       </c>
       <c r="I33" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="119" t="s">
         <v>199</v>
-      </c>
-      <c r="J33" s="119" t="s">
-        <v>200</v>
       </c>
       <c r="K33" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="238" t="s">
-        <v>254</v>
-      </c>
-      <c r="M33" s="242"/>
-      <c r="N33" s="241" t="s">
+      <c r="L33" s="241" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" s="245"/>
+      <c r="N33" s="244" t="s">
         <v>131</v>
       </c>
-      <c r="O33" s="240"/>
-      <c r="P33" s="243" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="244"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.2" customHeight="1">
+      <c r="O33" s="243"/>
+      <c r="P33" s="246" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q33" s="246"/>
+      <c r="R33" s="246"/>
+      <c r="S33" s="246"/>
+      <c r="T33" s="247"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.25" customHeight="1">
       <c r="A34" s="111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" s="190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" s="192"/>
       <c r="D34" s="70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="185" t="s">
         <v>130</v>
@@ -28303,13 +27971,13 @@
         <v>131</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I34" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="K34" s="28" t="s">
         <v>135</v>
@@ -28323,7 +27991,7 @@
       </c>
       <c r="O34" s="187"/>
       <c r="P34" s="190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="191"/>
       <c r="R34" s="191"/>
@@ -28332,10 +28000,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" s="190" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="192"/>
       <c r="D35" s="70" t="s">
@@ -28369,7 +28037,7 @@
       </c>
       <c r="O35" s="187"/>
       <c r="P35" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="191"/>
       <c r="R35" s="191"/>
@@ -28433,6 +28101,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100557DBD090A96984F918D8DA7D7571551" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4176f3855581886f8a28622d6f8342d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f71bcf13-258b-402b-ad05-50b5731642d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff149660b74c94bbad6e21449abc1f8" ns2:_="">
     <xsd:import namespace="f71bcf13-258b-402b-ad05-50b5731642d2"/>
@@ -28564,22 +28247,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B185A3E-F2FD-4782-9F09-F61B4051E48A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A4B867-BF46-4391-8BAA-03D324C2E23C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8944538-7FC4-497C-A0B3-80272DC81281}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28595,21 +28280,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B185A3E-F2FD-4782-9F09-F61B4051E48A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A4B867-BF46-4391-8BAA-03D324C2E23C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>